--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/oldschool/oldschool-uncommon.xlsx
@@ -58,8 +58,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -67,22 +66,23 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">When this creature enters, it deals 1 damage to you.
-{R}{R}: This creature gets +2/+0 until end of turn and deals 1 damage to you.</t>
+          <t>Target player reveals their hand and discards all nonland cards.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t>➤ 1 blue</t>
+          <t xml:space="preserve">➤ 3 generic
+➤ 3 blue</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -90,14 +90,15 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>{1}{U}{U}, Sacrifice a blue creature: Create X 1/1 blue Camarid creature tokens, where X is the sacrificed creature's mana value.</t>
+          <t xml:space="preserve">When this creature enters, it deals 1 damage to you.
+{R}{R}: This creature gets +2/+0 until end of turn and deals 1 damage to you.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t>➤ 2 blue</t>
+          <t>➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -112,15 +113,14 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>Target player reveals their hand and discards all nonland cards.</t>
+          <t>{1}{U}{U}, Sacrifice a blue creature: Create X 1/1 blue Camarid creature tokens, where X is the sacrificed creature's mana value.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
-➤ 3 blue</t>
+          <t>➤ 2 blue</t>
         </r>
       </text>
     </comment>
@@ -419,10 +419,10 @@
     <t>Oldschool (Uncommon) - Blue</t>
   </si>
   <si>
-    <t>Electric Eel</t>
+    <t>Amnesia</t>
   </si>
   <si>
-    <t>Creature — Fish</t>
+    <t>Sorcery</t>
   </si>
   <si>
     <t>drk</t>
@@ -431,13 +431,31 @@
     <t>The Dark</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>{3}{U}{U}{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>Open Amnesia</t>
+  </si>
+  <si>
+    <t>Electric Eel</t>
+  </si>
+  <si>
+    <t>Creature — Fish</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
     <t>{U}</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
   <si>
     <t>R, U</t>
@@ -465,24 +483,6 @@
   </si>
   <si>
     <t>Open Homarid Spawning Bed</t>
-  </si>
-  <si>
-    <t>Amnesia</t>
-  </si>
-  <si>
-    <t>Sorcery</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>{3}{U}{U}{U}</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>Open Amnesia</t>
   </si>
   <si>
     <t>Oldschool (Uncommon) - Black</t>
@@ -675,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -707,39 +707,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,28 +736,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4561,13 +4521,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>28</v>
@@ -4585,57 +4545,57 @@
         <v>32</v>
       </c>
       <c r="J3" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="J4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>41</v>
@@ -4645,46 +4605,46 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="13">
-        <v>4</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="13">
-        <v>6</v>
-      </c>
-      <c r="K5" s="13" t="s">
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -8001,7 +7961,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>51</v>
@@ -11344,10 +11304,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>19</v>
@@ -14722,46 +14682,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <v>2</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="13" t="s">
         <v>77</v>
       </c>
     </row>
@@ -18111,46 +18071,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="11">
         <v>3</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="11" t="s">
         <v>91</v>
       </c>
     </row>
